--- a/Task02-Python与Excel/OpenPyXL_test/用户行为偏好_1.xlsx
+++ b/Task02-Python与Excel/OpenPyXL_test/用户行为偏好_1.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="0_ "/>
     <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <name val="宋体"/>
       <family val="2"/>
@@ -44,48 +44,16 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="黑体"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color rgb="00FF0000"/>
-      <sz val="20"/>
-    </font>
-    <font>
-      <name val="黑体"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color rgb="00FF0000"/>
-      <sz val="10"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <gradientFill type="linear">
-        <stop position="0">
-          <color rgb="00FFFFFF"/>
-        </stop>
-        <stop position="0.5">
-          <color rgb="0099ccff"/>
-        </stop>
-        <stop position="1">
-          <color rgb="00000000"/>
-        </stop>
-      </gradientFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -93,28 +61,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="double">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -139,54 +90,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,84 +493,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="0"/>
-  <cols>
-    <col width="24" customWidth="1" style="2" min="3" max="3"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" s="2">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>编号</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="C1" s="17" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>行为时长</t>
         </is>
       </c>
-      <c r="D1" s="17" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>次数</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="8" t="n">
         <v>71401.30952380953</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="3" t="n">
         <v>44036</v>
       </c>
-      <c r="C2" s="13" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D2" s="14" t="n">
+      <c r="D2" s="9" t="n">
         <v>718.832012012012</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="n">
+      <c r="A3" s="8" t="n">
         <v>71401.30952380953</v>
       </c>
-      <c r="B3" s="19" t="n">
+      <c r="B3" s="3" t="n">
         <v>44036</v>
       </c>
-      <c r="C3" s="20" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="9" t="n">
         <v>728.862012012012</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="22" t="n">
+      <c r="A4" s="8" t="n">
         <v>71401.30952380953</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="3" t="n">
         <v>44036</v>
       </c>
-      <c r="C4" s="24" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="9" t="n">
         <v>390.792012012012</v>
       </c>
     </row>
@@ -829,17 +729,6 @@
       </c>
       <c r="D14" s="9" t="n">
         <v>152.432012012012</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="D15">
-        <f>SUM(D2:D14)</f>
-        <v/>
       </c>
     </row>
   </sheetData>
@@ -853,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
@@ -885,24 +774,10 @@
       <c r="H1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,6 +785,15 @@
       <c r="A3" t="n">
         <v>1</v>
       </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
@@ -919,9 +803,15 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
@@ -939,9 +829,15 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
-      <c r="B5" t="n">
+      <c r="A5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
@@ -950,6 +846,9 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
@@ -959,9 +858,15 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
-      <c r="B6" t="n">
+      <c r="A6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
@@ -970,15 +875,27 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" t="n">
+      <c r="A7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
@@ -987,6 +904,9 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
@@ -996,9 +916,15 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" t="n">
+      <c r="A8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
@@ -1007,6 +933,9 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
@@ -1016,9 +945,15 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" t="n">
+      <c r="A9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
@@ -1036,9 +971,15 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" t="n">
+      <c r="A10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
@@ -1047,6 +988,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
@@ -1056,9 +1000,15 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" t="n">
+      <c r="A11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
@@ -1067,18 +1017,24 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="n">
+      <c r="A12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
@@ -1087,6 +1043,9 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
@@ -1096,9 +1055,15 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" t="n">
+      <c r="A13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
@@ -1107,6 +1072,9 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
@@ -1116,15 +1084,155 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" t="n">
+      <c r="A14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
     </row>
